--- a/Estimated time calculations.xlsx
+++ b/Estimated time calculations.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emada_000\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Emad-Yousef\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -48,12 +48,6 @@
   </si>
   <si>
     <t>1. Requirements collection</t>
-  </si>
-  <si>
-    <t>2. Screen Design</t>
-  </si>
-  <si>
-    <t>3. Report Design</t>
   </si>
   <si>
     <t>4. Database Design</t>
@@ -94,13 +88,19 @@
       <t>)</t>
     </r>
   </si>
+  <si>
+    <t>2. Report Design</t>
+  </si>
+  <si>
+    <t>3. Screen Design</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -255,22 +255,12 @@
   </cellStyleXfs>
   <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -278,18 +268,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -317,7 +295,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -327,6 +305,28 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -611,224 +611,225 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D9" sqref="C9:D9"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.375" customWidth="1"/>
+    <col min="4" max="5" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="8"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="23"/>
+      <c r="G2" s="24"/>
+    </row>
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>6</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="26"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="20">
+        <f>(D4+4*C4+B4)/6</f>
+        <v>7.833333333333333</v>
+      </c>
+      <c r="B4" s="13">
+        <v>10</v>
+      </c>
+      <c r="C4" s="14">
+        <v>8</v>
+      </c>
+      <c r="D4" s="15">
+        <v>5</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="20">
+        <f>(D5+4*C5+B5)/6</f>
+        <v>3</v>
+      </c>
+      <c r="B5" s="13">
+        <v>5</v>
+      </c>
+      <c r="C5" s="14">
+        <v>3</v>
+      </c>
+      <c r="D5" s="15">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="19">
+        <f t="shared" ref="A6:A11" si="0">(D6+4*C6+B6)/6</f>
+        <v>4</v>
+      </c>
+      <c r="B6" s="13">
+        <v>6</v>
+      </c>
+      <c r="C6" s="14">
+        <v>4</v>
+      </c>
+      <c r="D6" s="15">
+        <v>2</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="1" t="s">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="20">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="13">
+        <v>9</v>
+      </c>
+      <c r="C7" s="14">
+        <v>6</v>
+      </c>
+      <c r="D7" s="15">
+        <v>3</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="20">
+        <f t="shared" si="0"/>
+        <v>4.333333333333333</v>
+      </c>
+      <c r="B8" s="13">
+        <v>7</v>
+      </c>
+      <c r="C8" s="14">
         <v>4</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22">
+      <c r="D8" s="15">
+        <v>3</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="19">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="13">
+        <v>9</v>
+      </c>
+      <c r="C9" s="14">
+        <v>7</v>
+      </c>
+      <c r="D9" s="15">
+        <v>5</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="20">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B10" s="13">
+        <v>5</v>
+      </c>
+      <c r="C10" s="14">
+        <v>3</v>
+      </c>
+      <c r="D10" s="15">
+        <v>1</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="21">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B11" s="16">
         <v>6</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="C11" s="17">
+        <v>4</v>
+      </c>
+      <c r="D11" s="18">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="10"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="30">
-        <f>(D4+4*C4+B4)/6</f>
-        <v>4</v>
-      </c>
-      <c r="B4" s="23">
-        <v>7</v>
-      </c>
-      <c r="C4" s="24">
-        <v>4</v>
-      </c>
-      <c r="D4" s="25">
-        <v>1</v>
-      </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="29">
-        <f t="shared" ref="A5:A11" si="0">(D5+4*C5+B5)/6</f>
-        <v>8.1666666666666661</v>
-      </c>
-      <c r="B5" s="23">
-        <v>11</v>
-      </c>
-      <c r="C5" s="24">
-        <v>8</v>
-      </c>
-      <c r="D5" s="25">
-        <v>6</v>
-      </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="30">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333339</v>
-      </c>
-      <c r="B6" s="23">
-        <v>13</v>
-      </c>
-      <c r="C6" s="24">
-        <v>8</v>
-      </c>
-      <c r="D6" s="25">
-        <v>5</v>
-      </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="30">
-        <f t="shared" si="0"/>
-        <v>9.1666666666666661</v>
-      </c>
-      <c r="B7" s="23">
-        <v>13</v>
-      </c>
-      <c r="C7" s="24">
-        <v>9</v>
-      </c>
-      <c r="D7" s="25">
-        <v>6</v>
-      </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="30">
-        <f t="shared" si="0"/>
-        <v>8.6666666666666661</v>
-      </c>
-      <c r="B8" s="23">
-        <v>11</v>
-      </c>
-      <c r="C8" s="24">
-        <v>9</v>
-      </c>
-      <c r="D8" s="25">
-        <v>5</v>
-      </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="29">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B9" s="23">
-        <v>14</v>
-      </c>
-      <c r="C9" s="24">
-        <v>10</v>
-      </c>
-      <c r="D9" s="25">
-        <v>6</v>
-      </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="12" t="s">
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="30">
-        <f t="shared" si="0"/>
-        <v>6.333333333333333</v>
-      </c>
-      <c r="B10" s="23">
-        <v>11</v>
-      </c>
-      <c r="C10" s="24">
-        <v>6</v>
-      </c>
-      <c r="D10" s="25">
-        <v>3</v>
-      </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="31">
-        <f t="shared" si="0"/>
-        <v>5.166666666666667</v>
-      </c>
-      <c r="B11" s="26">
-        <v>8</v>
-      </c>
-      <c r="C11" s="27">
-        <v>5</v>
-      </c>
-      <c r="D11" s="28">
-        <v>3</v>
-      </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="32">
+      <c r="A12" s="22">
         <f>SUM(A4:A11)</f>
-        <v>59.833333333333329</v>
+        <v>39.166666666666664</v>
       </c>
     </row>
   </sheetData>
